--- a/AnotherTry/DoborNarzedzi.xlsx
+++ b/AnotherTry/DoborNarzedzi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\Universitas\Semestris6\CNC\CNC\AnotherTry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4555DBE3-80DA-4390-89F1-C2A27533DE4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{005469A7-A134-4437-9CDA-A4E53A1296C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>Nr zabiegu</t>
   </si>
@@ -60,57 +60,30 @@
     <t>Skrawanie górne</t>
   </si>
   <si>
-    <t>głowica_100</t>
-  </si>
-  <si>
     <t>Frezowanie Zgrudbne konturu zewnętrznego</t>
   </si>
   <si>
     <t>Frez_walcowy_12</t>
   </si>
   <si>
-    <t>GARANT Frezy trzpieniowe z VHM 201040 12</t>
-  </si>
-  <si>
     <t>Frezowanie Wykończeniowe konturu zewnętrznego</t>
   </si>
   <si>
-    <t>Frezy VHM 201043 12</t>
-  </si>
-  <si>
     <t>Frezowanie Zgrubne wyspy</t>
   </si>
   <si>
     <t>Frez_walcowy_16</t>
   </si>
   <si>
-    <t>Frezy zgrubne z VHM GARANT Master Alu PickPocket HPC 202002 14</t>
-  </si>
-  <si>
     <t>Frezowanie Wykończeniowe wyspy</t>
   </si>
   <si>
-    <t>Frez_walcowy_4</t>
-  </si>
-  <si>
-    <t>GARANT Frezy trzpieniowe z VHM DLC 201045 5</t>
-  </si>
-  <si>
     <t>Frezowanie Zgrubne okręgu w kieszeni</t>
   </si>
   <si>
     <t>Frezowanie wykończeniowe okręgu w kieszeni</t>
   </si>
   <si>
-    <t>GARANT Frezy VHM TPC DLC 201735 16</t>
-  </si>
-  <si>
-    <t>Frezowanie Wykończeniowe kieszeni prostokątnej</t>
-  </si>
-  <si>
-    <t>GARANT Frezy trzpieniowe z VHM MTC DLC 202270 4,5</t>
-  </si>
-  <si>
     <t>Obróbka - Nawiercenie wszystkich otworów</t>
   </si>
   <si>
@@ -190,6 +163,48 @@
   </si>
   <si>
     <t>https://www.hoffmann-group.com/US/en/hus/Modular-machining/Indexable-milling-cutters-GARANT/Indexable-face-mill%C2%A043%C2%B0-Octo-with-bore/p/213300-125%402F8</t>
+  </si>
+  <si>
+    <t>https://www.hoffmann-group.com/US/en/hus/Mono-machining/HSS-milling-cutters/Roughing-end-mill-HSS-Co8-uncoated/p/192520-12</t>
+  </si>
+  <si>
+    <t>Możemy użyć tego samego narzędzia</t>
+  </si>
+  <si>
+    <t>Frez_walcowy_20</t>
+  </si>
+  <si>
+    <t>GARANT Frezy zgrubne HSS-PM 12 mm</t>
+  </si>
+  <si>
+    <t>GARANT Frezy zgrubne HSS-PM 20 mm</t>
+  </si>
+  <si>
+    <t>https://www.hoffmann-group.com/PL/pl/perp/Narz%C4%99dzia-monolityczne/Frezy-HSS/Frezy-zgrubne-HSS-PM-bez-pow%C5%82oki/p/192520-20</t>
+  </si>
+  <si>
+    <t>Frezy trzpieniowe z VHM GARANT Master Alu HPC</t>
+  </si>
+  <si>
+    <t>https://www.hoffmann-group.com/PL/pl/perp/Narz%C4%99dzia-monolityczne/Frezy-VHM/Frezy-trzpieniowe-z-VHM-GARANT-Master-Alu-HPC-bez-pow%C5%82oki/p/201070-6L</t>
+  </si>
+  <si>
+    <t>Frez_walcowy_6</t>
+  </si>
+  <si>
+    <t>Frezy zgrubne HSS-PM 20 mm</t>
+  </si>
+  <si>
+    <t>Frezy zgrubne HSS-PM 16 mm</t>
+  </si>
+  <si>
+    <t>https://www.hoffmann-group.com/PL/pl/perp/Narz%C4%99dzia-monolityczne/Frezy-HSS/Frezy-zgrubne-HSS-PM-bez-pow%C5%82oki/p/192520-16</t>
+  </si>
+  <si>
+    <t>Frezowanie wykończeniowe kieszeni prostokątnej</t>
+  </si>
+  <si>
+    <t>Głowica_100</t>
   </si>
 </sst>
 </file>
@@ -676,7 +691,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="J6" sqref="A6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -724,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -744,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6">
         <v>125</v>
@@ -768,7 +783,7 @@
         <v>4370</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -776,196 +791,206 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F3" s="6">
         <v>12</v>
       </c>
       <c r="G3" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="6">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="I3" s="6">
         <v>6.25E-2</v>
       </c>
       <c r="J3" s="6">
-        <v>4770</v>
+        <v>3710</v>
       </c>
       <c r="K3" s="6">
-        <v>298</v>
-      </c>
-      <c r="L3" s="6"/>
+        <v>696</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6">
         <v>12</v>
       </c>
       <c r="G4" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="6">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I4" s="6">
-        <v>0.05</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J4" s="6">
-        <v>4510</v>
+        <v>3710</v>
       </c>
       <c r="K4" s="6">
-        <v>282</v>
-      </c>
-      <c r="L4" s="6"/>
+        <v>696</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F5" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6">
         <v>3</v>
       </c>
       <c r="H5" s="6">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="I5" s="6">
-        <v>0.13800000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J5" s="6">
-        <v>5680</v>
+        <v>2240</v>
       </c>
       <c r="K5" s="6">
-        <v>2350</v>
-      </c>
-      <c r="L5" s="6"/>
+        <v>535</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="6">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="I6" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="J6" s="6">
-        <v>10000</v>
+        <v>9550</v>
       </c>
       <c r="K6" s="6">
-        <v>150</v>
-      </c>
-      <c r="L6" s="6"/>
+        <v>573</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="6">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="I7" s="6">
-        <v>6.25E-2</v>
+        <v>0.08</v>
       </c>
       <c r="J7" s="6">
-        <v>4770</v>
+        <v>2230</v>
       </c>
       <c r="K7" s="6">
-        <v>298</v>
-      </c>
-      <c r="L7" s="6"/>
+        <v>535</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F8" s="6">
         <v>16</v>
@@ -974,70 +999,74 @@
         <v>3</v>
       </c>
       <c r="H8" s="6">
-        <v>480</v>
+        <v>140</v>
       </c>
       <c r="I8" s="6">
-        <v>8.0600000000000005E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J8" s="6">
-        <v>9550</v>
+        <v>2790</v>
       </c>
       <c r="K8" s="6">
-        <v>2310</v>
-      </c>
-      <c r="L8" s="6"/>
+        <v>627</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="I9" s="6">
-        <v>2.0799999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="J9" s="6">
-        <v>10000</v>
+        <v>9550</v>
       </c>
       <c r="K9" s="6">
-        <v>625</v>
-      </c>
-      <c r="L9" s="6"/>
+        <v>573</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F10" s="6">
         <v>10</v>
@@ -1049,7 +1078,7 @@
         <v>70</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>3710</v>
@@ -1064,16 +1093,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F11" s="10">
         <v>3.3</v>
@@ -1085,7 +1114,7 @@
         <v>70</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J11" s="6">
         <v>6750</v>
@@ -1100,16 +1129,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6">
         <v>4.2</v>
@@ -1121,7 +1150,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J12" s="6">
         <v>5310</v>
@@ -1136,16 +1165,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F13" s="11">
         <v>6.6</v>
@@ -1157,7 +1186,7 @@
         <v>70</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J13" s="6">
         <v>3380</v>
@@ -1172,16 +1201,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F14" s="6">
         <v>16</v>
@@ -1193,7 +1222,7 @@
         <v>90</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J14" s="6">
         <v>2130</v>
@@ -1208,16 +1237,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F15" s="11">
         <v>3.3</v>
@@ -1229,13 +1258,13 @@
         <v>13</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J15" s="6">
         <v>1030</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L15" s="6"/>
     </row>
@@ -1244,16 +1273,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F16" s="11">
         <v>4.2</v>
@@ -1265,13 +1294,13 @@
         <v>28</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J16" s="6">
         <v>1780</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L16" s="6"/>
     </row>
@@ -1291,7 +1320,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1306,7 +1335,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
